--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>Date de début prévue</t>
   </si>
@@ -48,25 +48,73 @@
     <t>Conception</t>
   </si>
   <si>
-    <t>Développement Back-end</t>
-  </si>
-  <si>
-    <t>Développement Front-end</t>
-  </si>
-  <si>
-    <t>Etapes du projet</t>
-  </si>
-  <si>
-    <t>Phase de contrôle</t>
-  </si>
-  <si>
-    <t>Test initiaux</t>
-  </si>
-  <si>
-    <t>Test finaux</t>
-  </si>
-  <si>
-    <t>Soutenance</t>
+    <t>Responsable(s)</t>
+  </si>
+  <si>
+    <t>Connectivité avec la BD</t>
+  </si>
+  <si>
+    <t>Construction du modèle MVC</t>
+  </si>
+  <si>
+    <t>Tâches</t>
+  </si>
+  <si>
+    <t>Authentification</t>
+  </si>
+  <si>
+    <t>Gestion de session et cookies</t>
+  </si>
+  <si>
+    <t>Création des Servlets</t>
+  </si>
+  <si>
+    <t>Gestion des commandes et factures</t>
+  </si>
+  <si>
+    <t>Gestion proposition services/produits</t>
+  </si>
+  <si>
+    <t>Page de contact et réclamations</t>
+  </si>
+  <si>
+    <t>Evaluation des cuisiniers</t>
+  </si>
+  <si>
+    <t>Intégration template</t>
+  </si>
+  <si>
+    <t>Création des DAO</t>
+  </si>
+  <si>
+    <t>Amélioration des JSP du template</t>
+  </si>
+  <si>
+    <t>Intégration connexion réseaux sociaux</t>
+  </si>
+  <si>
+    <t>Hébergement du site</t>
+  </si>
+  <si>
+    <t>Youssef Ferchichi &amp; Junior Noubissi</t>
+  </si>
+  <si>
+    <t>Junior Noubissi</t>
+  </si>
+  <si>
+    <t>Junior Noubissi &amp; Youssef Ferchichi</t>
+  </si>
+  <si>
+    <t>Youssef Ferchichi</t>
+  </si>
+  <si>
+    <t>Hamza Chahi &amp; Youssef Ferchichi</t>
+  </si>
+  <si>
+    <t>Hamza Chahi</t>
+  </si>
+  <si>
+    <t>Toute l'équipe</t>
   </si>
 </sst>
 </file>
@@ -74,10 +122,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="[$-40C]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="170" formatCode="[$-40C]dd\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-40C]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +187,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,14 +231,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -207,12 +255,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -223,48 +382,69 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -272,105 +452,7 @@
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode="[$-40C]dd\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="[$-40C]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <b/>
@@ -394,7 +476,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -403,10 +485,303 @@
         </right>
         <top/>
         <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-40C]dd\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFCC66"/>
@@ -466,7 +841,7 @@
             <c:strRef>
               <c:f>'Diagramme de Gantt'!$B$6:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Recueil des besoins</c:v>
                 </c:pt>
@@ -474,22 +849,31 @@
                   <c:v>Conception</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Développement Back-end</c:v>
+                  <c:v>Connectivité avec la BD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Développement Front-end</c:v>
+                  <c:v>Construction du modèle MVC</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phase de contrôle</c:v>
+                  <c:v>Création des DAO</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Test initiaux</c:v>
+                  <c:v>Création des Servlets</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Test finaux</c:v>
+                  <c:v>Authentification</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Soutenance</c:v>
+                  <c:v>Gestion de session et cookies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gestion des commandes et factures</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gestion proposition services/produits</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Page de contact et réclamations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -507,22 +891,31 @@
                   <c:v>42768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42781</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42870</c:v>
+                  <c:v>42814</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42887</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42895</c:v>
+                  <c:v>42826</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42911</c:v>
+                  <c:v>42832</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42840</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,7 +956,7 @@
             <c:strRef>
               <c:f>'Diagramme de Gantt'!$B$6:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Recueil des besoins</c:v>
                 </c:pt>
@@ -571,22 +964,31 @@
                   <c:v>Conception</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Développement Back-end</c:v>
+                  <c:v>Connectivité avec la BD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Développement Front-end</c:v>
+                  <c:v>Construction du modèle MVC</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phase de contrôle</c:v>
+                  <c:v>Création des DAO</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Test initiaux</c:v>
+                  <c:v>Création des Servlets</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Test finaux</c:v>
+                  <c:v>Authentification</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Soutenance</c:v>
+                  <c:v>Gestion de session et cookies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gestion des commandes et factures</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gestion proposition services/produits</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Page de contact et réclamations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -598,28 +1000,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>54</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-48</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-65</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-73</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-89</c:v>
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,6 +1080,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-666A-4EF4-96DF-EB23DCF6EE8B}"/>
                 </c:ext>
@@ -695,6 +1107,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000D-666A-4EF4-96DF-EB23DCF6EE8B}"/>
                 </c:ext>
@@ -721,6 +1134,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000E-666A-4EF4-96DF-EB23DCF6EE8B}"/>
                 </c:ext>
@@ -747,6 +1161,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000F-666A-4EF4-96DF-EB23DCF6EE8B}"/>
                 </c:ext>
@@ -841,6 +1256,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000012-666A-4EF4-96DF-EB23DCF6EE8B}"/>
                 </c:ext>
@@ -867,6 +1283,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000013-666A-4EF4-96DF-EB23DCF6EE8B}"/>
                 </c:ext>
@@ -893,6 +1310,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000014-666A-4EF4-96DF-EB23DCF6EE8B}"/>
                 </c:ext>
@@ -968,7 +1386,7 @@
             <c:strRef>
               <c:f>'Diagramme de Gantt'!$B$6:$B$16</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>Recueil des besoins</c:v>
                 </c:pt>
@@ -976,22 +1394,31 @@
                   <c:v>Conception</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Développement Back-end</c:v>
+                  <c:v>Connectivité avec la BD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Développement Front-end</c:v>
+                  <c:v>Construction du modèle MVC</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Phase de contrôle</c:v>
+                  <c:v>Création des DAO</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Test initiaux</c:v>
+                  <c:v>Création des Servlets</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Test finaux</c:v>
+                  <c:v>Authentification</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Soutenance</c:v>
+                  <c:v>Gestion de session et cookies</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Gestion des commandes et factures</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Gestion proposition services/produits</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Page de contact et réclamations</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1003,28 +1430,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6" formatCode="0">
-                  <c:v>85</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0">
-                  <c:v>89</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1198,15 +1634,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>85723</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>66673</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1237,21 +1673,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:G13" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6">
-  <autoFilter ref="B5:G13"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Etapes du projet" dataDxfId="0"/>
-    <tableColumn id="2" name="Date de début prévue" dataDxfId="5"/>
-    <tableColumn id="3" name="Jours de travail" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:H21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="B5:H21"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Tâches" dataDxfId="7"/>
+    <tableColumn id="2" name="Date de début prévue" dataDxfId="6"/>
+    <tableColumn id="3" name="Jours de travail" dataDxfId="5">
       <calculatedColumnFormula>IF(E6&lt;TODAY(),E6-C6,TODAY()-C6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Date de fin prévue" dataDxfId="3"/>
-    <tableColumn id="5" name="Etat" dataDxfId="2">
+    <tableColumn id="4" name="Date de fin prévue" dataDxfId="4"/>
+    <tableColumn id="5" name="Etat" dataDxfId="3">
       <calculatedColumnFormula>IF(E6&lt;TODAY(),"Terminé","En cours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Jours avant la fin" dataDxfId="1">
+    <tableColumn id="6" name="Jours avant la fin" dataDxfId="2">
       <calculatedColumnFormula>'Diagramme de Gantt'!$E6-'Diagramme de Gantt'!$D6-'Diagramme de Gantt'!$C6</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="7" name="Responsable(s)" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1580,263 +2017,481 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" style="6" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
     <col min="6" max="6" width="13" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="I3" s="8" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:10" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="10" t="s">
         <v>4</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="14">
         <v>42767</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="15">
         <f ca="1">IF(E6&lt;TODAY(),E6-C6,TODAY()-C6)</f>
-        <v>55</v>
-      </c>
-      <c r="E6" s="12">
-        <v>42834</v>
-      </c>
-      <c r="F6" s="10" t="str">
+        <v>59</v>
+      </c>
+      <c r="E6" s="16">
+        <v>42826</v>
+      </c>
+      <c r="F6" s="17" t="str">
         <f ca="1">IF(E6&lt;TODAY(),"Terminé","En cours")</f>
-        <v>En cours</v>
-      </c>
-      <c r="G6" s="7">
+        <v>Terminé</v>
+      </c>
+      <c r="G6" s="18">
         <f ca="1">'Diagramme de Gantt'!$E6-'Diagramme de Gantt'!$D6-'Diagramme de Gantt'!$C6</f>
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="14">
         <v>42768</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="15">
         <f ca="1">IF(E7&lt;TODAY(),E7-C7,TODAY()-C7)</f>
-        <v>54</v>
-      </c>
-      <c r="E7" s="12">
+        <v>87</v>
+      </c>
+      <c r="E7" s="16">
         <v>42855</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="17" t="str">
         <f ca="1">IF(E7&lt;TODAY(),"Terminé","En cours")</f>
-        <v>En cours</v>
-      </c>
-      <c r="G7" s="7">
+        <v>Terminé</v>
+      </c>
+      <c r="G7" s="18">
         <f ca="1">'Diagramme de Gantt'!$E7-'Diagramme de Gantt'!$D7-'Diagramme de Gantt'!$C7</f>
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="11">
-        <v>42781</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14">
+        <v>42809</v>
+      </c>
+      <c r="D8" s="15">
         <f ca="1">IF(E8&lt;TODAY(),E8-C8,TODAY()-C8)</f>
-        <v>41</v>
-      </c>
-      <c r="E8" s="12">
-        <v>42886</v>
-      </c>
-      <c r="F8" s="10" t="str">
+        <v>31</v>
+      </c>
+      <c r="E8" s="16">
+        <v>42840</v>
+      </c>
+      <c r="F8" s="17" t="str">
         <f ca="1">IF(E8&lt;TODAY(),"Terminé","En cours")</f>
-        <v>En cours</v>
-      </c>
-      <c r="G8" s="7">
+        <v>Terminé</v>
+      </c>
+      <c r="G8" s="18">
         <f ca="1">'Diagramme de Gantt'!$E8-'Diagramme de Gantt'!$D8-'Diagramme de Gantt'!$C8</f>
-        <v>64</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="14">
         <v>42809</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="15">
         <f ca="1">IF(E9&lt;TODAY(),E9-C9,TODAY()-C9)</f>
-        <v>13</v>
-      </c>
-      <c r="E9" s="12">
-        <v>42895</v>
-      </c>
-      <c r="F9" s="10" t="str">
-        <f ca="1">IF(E9&lt;TODAY(),"Terminé","En cours")</f>
-        <v>En cours</v>
-      </c>
-      <c r="G9" s="7">
+        <v>16</v>
+      </c>
+      <c r="E9" s="16">
+        <v>42825</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="18">
         <f ca="1">'Diagramme de Gantt'!$E9-'Diagramme de Gantt'!$D9-'Diagramme de Gantt'!$C9</f>
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11">
-        <v>42870</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" ref="D10:D15" ca="1" si="0">IF(E10&lt;TODAY(),E10-C10,TODAY()-C10)</f>
-        <v>-48</v>
-      </c>
-      <c r="E10" s="12">
-        <v>42901</v>
-      </c>
-      <c r="F10" s="10" t="str">
-        <f t="shared" ref="F10:F15" ca="1" si="1">IF(E10&lt;TODAY(),"Terminé","En cours")</f>
-        <v>En cours</v>
-      </c>
-      <c r="G10" s="7">
+      <c r="B10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="14">
+        <v>42814</v>
+      </c>
+      <c r="D10" s="15">
+        <f t="shared" ref="D10:D11" ca="1" si="0">IF(E10&lt;TODAY(),E10-C10,TODAY()-C10)</f>
+        <v>11</v>
+      </c>
+      <c r="E10" s="16">
+        <v>42825</v>
+      </c>
+      <c r="F10" s="17" t="str">
+        <f t="shared" ref="F10:F11" ca="1" si="1">IF(E10&lt;TODAY(),"Terminé","En cours")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="G10" s="18">
         <f ca="1">'Diagramme de Gantt'!$E10-'Diagramme de Gantt'!$D10-'Diagramme de Gantt'!$C10</f>
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11">
-        <v>42887</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14">
+        <v>42826</v>
+      </c>
+      <c r="D11" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>-65</v>
-      </c>
-      <c r="E11" s="12">
-        <v>42894</v>
-      </c>
-      <c r="F11" s="10" t="str">
+        <v>44</v>
+      </c>
+      <c r="E11" s="16">
+        <v>42870</v>
+      </c>
+      <c r="F11" s="17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>En cours</v>
-      </c>
-      <c r="G11" s="7">
+        <v>Terminé</v>
+      </c>
+      <c r="G11" s="18">
         <f ca="1">'Diagramme de Gantt'!$E11-'Diagramme de Gantt'!$D11-'Diagramme de Gantt'!$C11</f>
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11">
-        <v>42895</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14">
+        <v>42826</v>
+      </c>
+      <c r="D12" s="15">
         <f t="shared" ref="D12:D13" ca="1" si="2">IF(E12&lt;TODAY(),E12-C12,TODAY()-C12)</f>
-        <v>-73</v>
-      </c>
-      <c r="E12" s="12">
-        <v>42907</v>
-      </c>
-      <c r="F12" s="21" t="str">
+        <v>6</v>
+      </c>
+      <c r="E12" s="16">
+        <v>42832</v>
+      </c>
+      <c r="F12" s="17" t="str">
         <f t="shared" ref="F12:F13" ca="1" si="3">IF(E12&lt;TODAY(),"Terminé","En cours")</f>
-        <v>En cours</v>
-      </c>
-      <c r="G12" s="6">
+        <v>Terminé</v>
+      </c>
+      <c r="G12" s="15">
         <f ca="1">'Diagramme de Gantt'!$E12-'Diagramme de Gantt'!$D12-'Diagramme de Gantt'!$C12</f>
-        <v>85</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11">
-        <v>42911</v>
-      </c>
-      <c r="D13" s="20">
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="14">
+        <v>42832</v>
+      </c>
+      <c r="D13" s="15">
         <f t="shared" ca="1" si="2"/>
-        <v>-89</v>
-      </c>
-      <c r="E13" s="12">
-        <v>42911</v>
-      </c>
-      <c r="F13" s="21" t="str">
+        <v>7</v>
+      </c>
+      <c r="E13" s="16">
+        <v>42839</v>
+      </c>
+      <c r="F13" s="17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>En cours</v>
-      </c>
-      <c r="G13" s="6">
+        <v>Terminé</v>
+      </c>
+      <c r="G13" s="15">
         <f ca="1">'Diagramme de Gantt'!$E13-'Diagramme de Gantt'!$D13-'Diagramme de Gantt'!$C13</f>
-        <v>89</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="15"/>
+      <c r="B14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="14">
+        <v>42845</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:D17" ca="1" si="4">IF(E14&lt;TODAY(),E14-C14,TODAY()-C14)</f>
+        <v>25</v>
+      </c>
+      <c r="E14" s="16">
+        <v>42870</v>
+      </c>
+      <c r="F14" s="21" t="str">
+        <f t="shared" ref="F14:F17" ca="1" si="5">IF(E14&lt;TODAY(),"Terminé","En cours")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="G14" s="20">
+        <f ca="1">'Diagramme de Gantt'!$E14-'Diagramme de Gantt'!$D14-'Diagramme de Gantt'!$C14</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="15"/>
+      <c r="B15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="14">
+        <v>42845</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="E15" s="16">
+        <v>42856</v>
+      </c>
+      <c r="F15" s="21" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="G15" s="20">
+        <f ca="1">'Diagramme de Gantt'!$E15-'Diagramme de Gantt'!$D15-'Diagramme de Gantt'!$C15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="4"/>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="14">
+        <v>42840</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>42842</v>
+      </c>
+      <c r="F16" s="21" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="G16" s="20">
+        <f ca="1">'Diagramme de Gantt'!$E16-'Diagramme de Gantt'!$D16-'Diagramme de Gantt'!$C16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="18"/>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="14">
+        <v>42856</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="E17" s="16">
+        <v>42862</v>
+      </c>
+      <c r="F17" s="21" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Terminé</v>
+      </c>
+      <c r="G17" s="20">
+        <f ca="1">'Diagramme de Gantt'!$E17-'Diagramme de Gantt'!$D17-'Diagramme de Gantt'!$C17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="14">
+        <v>42814</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" ref="D18:D21" ca="1" si="6">IF(E18&lt;TODAY(),E18-C18,TODAY()-C18)</f>
+        <v>11</v>
+      </c>
+      <c r="E18" s="16">
+        <v>42825</v>
+      </c>
+      <c r="F18" s="21" t="str">
+        <f t="shared" ref="F18:F21" ca="1" si="7">IF(E18&lt;TODAY(),"Terminé","En cours")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="G18" s="20">
+        <f ca="1">'Diagramme de Gantt'!$E18-'Diagramme de Gantt'!$D18-'Diagramme de Gantt'!$C18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="14">
+        <v>42814</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="E19" s="16">
+        <v>42855</v>
+      </c>
+      <c r="F19" s="21" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>Terminé</v>
+      </c>
+      <c r="G19" s="20">
+        <f ca="1">'Diagramme de Gantt'!$E19-'Diagramme de Gantt'!$D19-'Diagramme de Gantt'!$C19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="14">
+        <v>42875</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E20" s="16">
+        <v>42901</v>
+      </c>
+      <c r="F20" s="21" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>En cours</v>
+      </c>
+      <c r="G20" s="20">
+        <f ca="1">'Diagramme de Gantt'!$E20-'Diagramme de Gantt'!$D20-'Diagramme de Gantt'!$C20</f>
+        <v>13</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="23">
+        <v>42906</v>
+      </c>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
+      <c r="E21" s="25">
+        <v>42907</v>
+      </c>
+      <c r="F21" s="26" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>En cours</v>
+      </c>
+      <c r="G21" s="24">
+        <f>'Diagramme de Gantt'!$E21-'Diagramme de Gantt'!$D21-'Diagramme de Gantt'!$C21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="28"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1845,6 +2500,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F9 D21" calculatedColumn="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>

--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -388,12 +388,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -447,12 +441,278 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="[$-40C]dd\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1" tint="0.499984740745262"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFEAA7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE8F8F8"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -491,266 +751,6 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$-40C]dd\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1" tint="0.499984740745262"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFEAA7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="[$-40C]d\-mmm\-yy;@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE8F8F8"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1673,22 +1673,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:H21" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:H21" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B5:H21"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Tâches" dataDxfId="7"/>
-    <tableColumn id="2" name="Date de début prévue" dataDxfId="6"/>
-    <tableColumn id="3" name="Jours de travail" dataDxfId="5">
+    <tableColumn id="1" name="Tâches" dataDxfId="6"/>
+    <tableColumn id="2" name="Date de début prévue" dataDxfId="5"/>
+    <tableColumn id="3" name="Jours de travail" dataDxfId="4">
       <calculatedColumnFormula>IF(E6&lt;TODAY(),E6-C6,TODAY()-C6)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Date de fin prévue" dataDxfId="4"/>
-    <tableColumn id="5" name="Etat" dataDxfId="3">
+    <tableColumn id="4" name="Date de fin prévue" dataDxfId="3"/>
+    <tableColumn id="5" name="Etat" dataDxfId="2">
       <calculatedColumnFormula>IF(E6&lt;TODAY(),"Terminé","En cours")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Jours avant la fin" dataDxfId="2">
+    <tableColumn id="6" name="Jours avant la fin" dataDxfId="1">
       <calculatedColumnFormula>'Diagramme de Gantt'!$E6-'Diagramme de Gantt'!$D6-'Diagramme de Gantt'!$C6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Responsable(s)" dataDxfId="1"/>
+    <tableColumn id="7" name="Responsable(s)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2035,12 +2035,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2049,446 +2049,446 @@
       </c>
     </row>
     <row r="5" spans="2:10" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <v>42767</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="13">
         <f ca="1">IF(E6&lt;TODAY(),E6-C6,TODAY()-C6)</f>
         <v>59</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>42826</v>
       </c>
-      <c r="F6" s="17" t="str">
+      <c r="F6" s="15" t="str">
         <f ca="1">IF(E6&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <f ca="1">'Diagramme de Gantt'!$E6-'Diagramme de Gantt'!$D6-'Diagramme de Gantt'!$C6</f>
         <v>0</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="12">
         <v>42768</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <f ca="1">IF(E7&lt;TODAY(),E7-C7,TODAY()-C7)</f>
         <v>87</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>42855</v>
       </c>
-      <c r="F7" s="17" t="str">
+      <c r="F7" s="15" t="str">
         <f ca="1">IF(E7&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <f ca="1">'Diagramme de Gantt'!$E7-'Diagramme de Gantt'!$D7-'Diagramme de Gantt'!$C7</f>
         <v>0</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>42809</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <f ca="1">IF(E8&lt;TODAY(),E8-C8,TODAY()-C8)</f>
         <v>31</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>42840</v>
       </c>
-      <c r="F8" s="17" t="str">
+      <c r="F8" s="15" t="str">
         <f ca="1">IF(E8&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <f ca="1">'Diagramme de Gantt'!$E8-'Diagramme de Gantt'!$D8-'Diagramme de Gantt'!$C8</f>
         <v>0</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>42809</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <f ca="1">IF(E9&lt;TODAY(),E9-C9,TODAY()-C9)</f>
         <v>16</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>42825</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <f ca="1">'Diagramme de Gantt'!$E9-'Diagramme de Gantt'!$D9-'Diagramme de Gantt'!$C9</f>
         <v>0</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="12">
         <v>42814</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <f t="shared" ref="D10:D11" ca="1" si="0">IF(E10&lt;TODAY(),E10-C10,TODAY()-C10)</f>
         <v>11</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>42825</v>
       </c>
-      <c r="F10" s="17" t="str">
+      <c r="F10" s="15" t="str">
         <f t="shared" ref="F10:F11" ca="1" si="1">IF(E10&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <f ca="1">'Diagramme de Gantt'!$E10-'Diagramme de Gantt'!$D10-'Diagramme de Gantt'!$C10</f>
         <v>0</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="H10" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="12">
         <v>42826</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="13">
         <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>42870</v>
       </c>
-      <c r="F11" s="17" t="str">
+      <c r="F11" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>Terminé</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <f ca="1">'Diagramme de Gantt'!$E11-'Diagramme de Gantt'!$D11-'Diagramme de Gantt'!$C11</f>
         <v>0</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="12">
         <v>42826</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="13">
         <f t="shared" ref="D12:D13" ca="1" si="2">IF(E12&lt;TODAY(),E12-C12,TODAY()-C12)</f>
         <v>6</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>42832</v>
       </c>
-      <c r="F12" s="17" t="str">
+      <c r="F12" s="15" t="str">
         <f t="shared" ref="F12:F13" ca="1" si="3">IF(E12&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="13">
         <f ca="1">'Diagramme de Gantt'!$E12-'Diagramme de Gantt'!$D12-'Diagramme de Gantt'!$C12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="19" t="s">
+      <c r="H12" s="17" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="12">
         <v>42832</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="13">
         <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>42839</v>
       </c>
-      <c r="F13" s="17" t="str">
+      <c r="F13" s="15" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>Terminé</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="13">
         <f ca="1">'Diagramme de Gantt'!$E13-'Diagramme de Gantt'!$D13-'Diagramme de Gantt'!$C13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="12">
         <v>42845</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="18">
         <f t="shared" ref="D14:D17" ca="1" si="4">IF(E14&lt;TODAY(),E14-C14,TODAY()-C14)</f>
         <v>25</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>42870</v>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="19" t="str">
         <f t="shared" ref="F14:F17" ca="1" si="5">IF(E14&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="18">
         <f ca="1">'Diagramme de Gantt'!$E14-'Diagramme de Gantt'!$D14-'Diagramme de Gantt'!$C14</f>
         <v>0</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="12">
         <v>42845</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>11</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>42856</v>
       </c>
-      <c r="F15" s="21" t="str">
+      <c r="F15" s="19" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Terminé</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G15" s="18">
         <f ca="1">'Diagramme de Gantt'!$E15-'Diagramme de Gantt'!$D15-'Diagramme de Gantt'!$C15</f>
         <v>0</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="12">
         <v>42840</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>42842</v>
       </c>
-      <c r="F16" s="21" t="str">
+      <c r="F16" s="19" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Terminé</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="18">
         <f ca="1">'Diagramme de Gantt'!$E16-'Diagramme de Gantt'!$D16-'Diagramme de Gantt'!$C16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="19" t="s">
+      <c r="H16" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="12">
         <v>42856</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>42862</v>
       </c>
-      <c r="F17" s="21" t="str">
+      <c r="F17" s="19" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Terminé</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <f ca="1">'Diagramme de Gantt'!$E17-'Diagramme de Gantt'!$D17-'Diagramme de Gantt'!$C17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="12">
         <v>42814</v>
       </c>
-      <c r="D18" s="20">
-        <f t="shared" ref="D18:D21" ca="1" si="6">IF(E18&lt;TODAY(),E18-C18,TODAY()-C18)</f>
+      <c r="D18" s="18">
+        <f t="shared" ref="D18:D20" ca="1" si="6">IF(E18&lt;TODAY(),E18-C18,TODAY()-C18)</f>
         <v>11</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>42825</v>
       </c>
-      <c r="F18" s="21" t="str">
+      <c r="F18" s="19" t="str">
         <f t="shared" ref="F18:F21" ca="1" si="7">IF(E18&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <f ca="1">'Diagramme de Gantt'!$E18-'Diagramme de Gantt'!$D18-'Diagramme de Gantt'!$C18</f>
         <v>0</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="17" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="12">
         <v>42814</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <f t="shared" ca="1" si="6"/>
         <v>41</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>42855</v>
       </c>
-      <c r="F19" s="21" t="str">
+      <c r="F19" s="19" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>Terminé</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="18">
         <f ca="1">'Diagramme de Gantt'!$E19-'Diagramme de Gantt'!$D19-'Diagramme de Gantt'!$C19</f>
         <v>0</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="12">
         <v>42875</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <f t="shared" ca="1" si="6"/>
         <v>13</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>42901</v>
       </c>
-      <c r="F20" s="21" t="str">
+      <c r="F20" s="19" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>En cours</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <f ca="1">'Diagramme de Gantt'!$E20-'Diagramme de Gantt'!$D20-'Diagramme de Gantt'!$C20</f>
         <v>13</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="17" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="21">
         <v>42906</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="22">
         <v>1</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="23">
         <v>42907</v>
       </c>
-      <c r="F21" s="26" t="str">
+      <c r="F21" s="24" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>En cours</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <f>'Diagramme de Gantt'!$E21-'Diagramme de Gantt'!$D21-'Diagramme de Gantt'!$C21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="27" t="s">
+      <c r="H21" s="25" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="28"/>
+      <c r="E23" s="26"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>

--- a/Diagramme de Gantt.xlsx
+++ b/Diagramme de Gantt.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Date de début prévue</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Page de contact et réclamations</t>
   </si>
   <si>
-    <t>Evaluation des cuisiniers</t>
-  </si>
-  <si>
     <t>Intégration template</t>
   </si>
   <si>
@@ -115,6 +112,18 @@
   </si>
   <si>
     <t>Toute l'équipe</t>
+  </si>
+  <si>
+    <t>Management et communication inter-équipe</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance et améliorations </t>
+  </si>
+  <si>
+    <t>Evaluation/messages/avis/publication</t>
   </si>
 </sst>
 </file>
@@ -232,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -351,21 +360,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -438,13 +432,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,24 +685,24 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
+      <border>
+        <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -839,9 +833,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Diagramme de Gantt'!$B$6:$B$16</c:f>
+              <c:f>'Diagramme de Gantt'!$B$6:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Recueil des besoins</c:v>
                 </c:pt>
@@ -849,30 +843,33 @@
                   <c:v>Conception</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Management et communication inter-équipe</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Connectivité avec la BD</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Construction du modèle MVC</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Création des DAO</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Création des Servlets</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Authentification</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Gestion de session et cookies</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Gestion des commandes et factures</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Gestion proposition services/produits</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Page de contact et réclamations</c:v>
                 </c:pt>
               </c:strCache>
@@ -880,10 +877,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Diagramme de Gantt'!$C$6:$C$16</c:f>
+              <c:f>'Diagramme de Gantt'!$C$6:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>[$-40C]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>42767</c:v>
                 </c:pt>
@@ -891,30 +888,33 @@
                   <c:v>42768</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42809</c:v>
+                  <c:v>42763</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>42809</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>42814</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>42826</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>42826</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>42826</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42832</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>42845</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>42845</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>42845</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>42840</c:v>
                 </c:pt>
               </c:numCache>
@@ -954,9 +954,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Diagramme de Gantt'!$B$6:$B$16</c:f>
+              <c:f>'Diagramme de Gantt'!$B$6:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Recueil des besoins</c:v>
                 </c:pt>
@@ -964,30 +964,33 @@
                   <c:v>Conception</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Management et communication inter-équipe</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Connectivité avec la BD</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Construction du modèle MVC</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Création des DAO</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Création des Servlets</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Authentification</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Gestion de session et cookies</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Gestion des commandes et factures</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Gestion proposition services/produits</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Page de contact et réclamations</c:v>
                 </c:pt>
               </c:strCache>
@@ -995,10 +998,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Diagramme de Gantt'!$D$6:$D$16</c:f>
+              <c:f>'Diagramme de Gantt'!$D$6:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
                 </c:pt>
@@ -1006,31 +1009,34 @@
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1384,9 +1390,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Diagramme de Gantt'!$B$6:$B$16</c:f>
+              <c:f>'Diagramme de Gantt'!$B$6:$B$17</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>Recueil des besoins</c:v>
                 </c:pt>
@@ -1394,30 +1400,33 @@
                   <c:v>Conception</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>Management et communication inter-équipe</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>Connectivité avec la BD</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Construction du modèle MVC</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Création des DAO</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>Création des Servlets</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Authentification</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>Gestion de session et cookies</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Gestion des commandes et factures</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Gestion proposition services/produits</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>Page de contact et réclamations</c:v>
                 </c:pt>
               </c:strCache>
@@ -1425,10 +1434,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Diagramme de Gantt'!$G$6:$G$16</c:f>
+              <c:f>'Diagramme de Gantt'!$G$6:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1447,19 +1456,22 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0">
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="0">
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0">
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1673,8 +1685,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:H21" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B5:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B5:H23" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="B5:H23"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Tâches" dataDxfId="6"/>
     <tableColumn id="2" name="Date de début prévue" dataDxfId="5"/>
@@ -2018,13 +2030,13 @@
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="6" customWidth="1"/>
     <col min="3" max="3" width="25.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" style="2" customWidth="1"/>
@@ -2035,12 +2047,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
       <c r="I3" s="4" t="s">
         <v>5</v>
       </c>
@@ -2095,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -2121,79 +2133,76 @@
         <v>0</v>
       </c>
       <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="C8" s="12">
-        <v>42809</v>
-      </c>
-      <c r="D8" s="13">
-        <f ca="1">IF(E8&lt;TODAY(),E8-C8,TODAY()-C8)</f>
-        <v>31</v>
-      </c>
-      <c r="E8" s="14">
-        <v>42840</v>
-      </c>
-      <c r="F8" s="15" t="str">
-        <f ca="1">IF(E8&lt;TODAY(),"Terminé","En cours")</f>
-        <v>Terminé</v>
-      </c>
-      <c r="G8" s="16">
-        <f ca="1">'Diagramme de Gantt'!$E8-'Diagramme de Gantt'!$D8-'Diagramme de Gantt'!$C8</f>
-        <v>0</v>
+        <v>42763</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>32</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12">
         <v>42809</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="18">
         <f ca="1">IF(E9&lt;TODAY(),E9-C9,TODAY()-C9)</f>
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E9" s="14">
-        <v>42825</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="16">
+        <v>42840</v>
+      </c>
+      <c r="F9" s="19" t="str">
+        <f ca="1">IF(E9&lt;TODAY(),"Terminé","En cours")</f>
+        <v>Terminé</v>
+      </c>
+      <c r="G9" s="19">
         <f ca="1">'Diagramme de Gantt'!$E9-'Diagramme de Gantt'!$D9-'Diagramme de Gantt'!$C9</f>
         <v>0</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C10" s="12">
-        <v>42814</v>
-      </c>
-      <c r="D10" s="13">
-        <f t="shared" ref="D10:D11" ca="1" si="0">IF(E10&lt;TODAY(),E10-C10,TODAY()-C10)</f>
-        <v>11</v>
+        <v>42809</v>
+      </c>
+      <c r="D10" s="18">
+        <f ca="1">IF(E10&lt;TODAY(),E10-C10,TODAY()-C10)</f>
+        <v>16</v>
       </c>
       <c r="E10" s="14">
         <v>42825</v>
       </c>
-      <c r="F10" s="15" t="str">
-        <f t="shared" ref="F10:F11" ca="1" si="1">IF(E10&lt;TODAY(),"Terminé","En cours")</f>
-        <v>Terminé</v>
-      </c>
-      <c r="G10" s="16">
+      <c r="F10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="19">
         <f ca="1">'Diagramme de Gantt'!$E10-'Diagramme de Gantt'!$D10-'Diagramme de Gantt'!$C10</f>
         <v>0</v>
       </c>
@@ -2203,23 +2212,23 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="12">
-        <v>42826</v>
-      </c>
-      <c r="D11" s="13">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>42814</v>
+      </c>
+      <c r="D11" s="18">
+        <f t="shared" ref="D11" ca="1" si="0">IF(E11&lt;TODAY(),E11-C11,TODAY()-C11)</f>
+        <v>42</v>
       </c>
       <c r="E11" s="14">
-        <v>42870</v>
-      </c>
-      <c r="F11" s="15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <v>42856</v>
+      </c>
+      <c r="F11" s="19" t="str">
+        <f t="shared" ref="F11" ca="1" si="1">IF(E11&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="19">
         <f ca="1">'Diagramme de Gantt'!$E11-'Diagramme de Gantt'!$D11-'Diagramme de Gantt'!$C11</f>
         <v>0</v>
       </c>
@@ -2229,266 +2238,312 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="12">
         <v>42826</v>
       </c>
-      <c r="D12" s="13">
-        <f t="shared" ref="D12:D13" ca="1" si="2">IF(E12&lt;TODAY(),E12-C12,TODAY()-C12)</f>
-        <v>6</v>
+      <c r="D12" s="18">
+        <f ca="1">IF(E12&lt;TODAY(),E12-C12,TODAY()-C12)</f>
+        <v>44</v>
       </c>
       <c r="E12" s="14">
-        <v>42832</v>
-      </c>
-      <c r="F12" s="15" t="str">
-        <f t="shared" ref="F12:F13" ca="1" si="3">IF(E12&lt;TODAY(),"Terminé","En cours")</f>
+        <v>42870</v>
+      </c>
+      <c r="F12" s="19" t="str">
+        <f ca="1">IF(E12&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="19">
         <f ca="1">'Diagramme de Gantt'!$E12-'Diagramme de Gantt'!$D12-'Diagramme de Gantt'!$C12</f>
         <v>0</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="12">
+        <v>42826</v>
+      </c>
+      <c r="D13" s="18">
+        <f t="shared" ref="D13:D14" ca="1" si="2">IF(E13&lt;TODAY(),E13-C13,TODAY()-C13)</f>
+        <v>6</v>
+      </c>
+      <c r="E13" s="14">
         <v>42832</v>
       </c>
-      <c r="D13" s="13">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="E13" s="14">
-        <v>42839</v>
-      </c>
-      <c r="F13" s="15" t="str">
-        <f t="shared" ca="1" si="3"/>
+      <c r="F13" s="19" t="str">
+        <f t="shared" ref="F13:F14" ca="1" si="3">IF(E13&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="19">
         <f ca="1">'Diagramme de Gantt'!$E13-'Diagramme de Gantt'!$D13-'Diagramme de Gantt'!$C13</f>
         <v>0</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="12">
-        <v>42845</v>
+        <v>42832</v>
       </c>
       <c r="D14" s="18">
-        <f t="shared" ref="D14:D17" ca="1" si="4">IF(E14&lt;TODAY(),E14-C14,TODAY()-C14)</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="E14" s="14">
-        <v>42870</v>
+        <v>42839</v>
       </c>
       <c r="F14" s="19" t="str">
-        <f t="shared" ref="F14:F17" ca="1" si="5">IF(E14&lt;TODAY(),"Terminé","En cours")</f>
+        <f t="shared" ca="1" si="3"/>
         <v>Terminé</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="19">
         <f ca="1">'Diagramme de Gantt'!$E14-'Diagramme de Gantt'!$D14-'Diagramme de Gantt'!$C14</f>
         <v>0</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="12">
         <v>42845</v>
       </c>
       <c r="D15" s="18">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <f t="shared" ref="D15:D18" ca="1" si="4">IF(E15&lt;TODAY(),E15-C15,TODAY()-C15)</f>
+        <v>43</v>
       </c>
       <c r="E15" s="14">
-        <v>42856</v>
+        <v>42901</v>
       </c>
       <c r="F15" s="19" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>Terminé</v>
-      </c>
-      <c r="G15" s="18">
+        <f t="shared" ref="F15:F18" ca="1" si="5">IF(E15&lt;TODAY(),"Terminé","En cours")</f>
+        <v>En cours</v>
+      </c>
+      <c r="G15" s="19">
         <f ca="1">'Diagramme de Gantt'!$E15-'Diagramme de Gantt'!$D15-'Diagramme de Gantt'!$C15</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="12">
-        <v>42840</v>
+        <v>42845</v>
       </c>
       <c r="D16" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E16" s="14">
-        <v>42842</v>
+        <v>42856</v>
       </c>
       <c r="F16" s="19" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Terminé</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <f ca="1">'Diagramme de Gantt'!$E16-'Diagramme de Gantt'!$D16-'Diagramme de Gantt'!$C16</f>
         <v>0</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="12">
-        <v>42856</v>
+        <v>42840</v>
       </c>
       <c r="D17" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17" s="14">
-        <v>42862</v>
+        <v>42850</v>
       </c>
       <c r="F17" s="19" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Terminé</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <f ca="1">'Diagramme de Gantt'!$E17-'Diagramme de Gantt'!$D17-'Diagramme de Gantt'!$C17</f>
         <v>0</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C18" s="12">
-        <v>42814</v>
+        <v>42856</v>
       </c>
       <c r="D18" s="18">
-        <f t="shared" ref="D18:D20" ca="1" si="6">IF(E18&lt;TODAY(),E18-C18,TODAY()-C18)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
       </c>
       <c r="E18" s="14">
-        <v>42825</v>
+        <v>42885</v>
       </c>
       <c r="F18" s="19" t="str">
-        <f t="shared" ref="F18:F21" ca="1" si="7">IF(E18&lt;TODAY(),"Terminé","En cours")</f>
+        <f t="shared" ca="1" si="5"/>
         <v>Terminé</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <f ca="1">'Diagramme de Gantt'!$E18-'Diagramme de Gantt'!$D18-'Diagramme de Gantt'!$C18</f>
         <v>0</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C19" s="12">
         <v>42814</v>
       </c>
       <c r="D19" s="18">
-        <f t="shared" ca="1" si="6"/>
-        <v>41</v>
+        <f t="shared" ref="D19:D21" ca="1" si="6">IF(E19&lt;TODAY(),E19-C19,TODAY()-C19)</f>
+        <v>11</v>
       </c>
       <c r="E19" s="14">
-        <v>42855</v>
+        <v>42825</v>
       </c>
       <c r="F19" s="19" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="F19:F22" ca="1" si="7">IF(E19&lt;TODAY(),"Terminé","En cours")</f>
         <v>Terminé</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <f ca="1">'Diagramme de Gantt'!$E19-'Diagramme de Gantt'!$D19-'Diagramme de Gantt'!$C19</f>
         <v>0</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="12">
-        <v>42875</v>
+        <v>42814</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E20" s="14">
-        <v>42901</v>
+        <v>42855</v>
       </c>
       <c r="F20" s="19" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>En cours</v>
-      </c>
-      <c r="G20" s="18">
+        <v>Terminé</v>
+      </c>
+      <c r="G20" s="19">
         <f ca="1">'Diagramme de Gantt'!$E20-'Diagramme de Gantt'!$D20-'Diagramme de Gantt'!$C20</f>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="21">
-        <v>42906</v>
-      </c>
-      <c r="D21" s="22">
-        <v>1</v>
-      </c>
-      <c r="E21" s="23">
-        <v>42907</v>
-      </c>
-      <c r="F21" s="24" t="str">
+      <c r="B21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="12">
+        <v>42875</v>
+      </c>
+      <c r="D21" s="18">
+        <f t="shared" ca="1" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="E21" s="14">
+        <v>42901</v>
+      </c>
+      <c r="F21" s="19" t="str">
         <f t="shared" ca="1" si="7"/>
         <v>En cours</v>
       </c>
-      <c r="G21" s="22">
-        <f>'Diagramme de Gantt'!$E21-'Diagramme de Gantt'!$D21-'Diagramme de Gantt'!$C21</f>
+      <c r="G21" s="19">
+        <f ca="1">'Diagramme de Gantt'!$E21-'Diagramme de Gantt'!$D21-'Diagramme de Gantt'!$C21</f>
+        <v>13</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="21">
+        <v>42906</v>
+      </c>
+      <c r="D22" s="22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
+        <v>42907</v>
+      </c>
+      <c r="F22" s="24" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>En cours</v>
+      </c>
+      <c r="G22" s="22">
+        <f>'Diagramme de Gantt'!$E22-'Diagramme de Gantt'!$D22-'Diagramme de Gantt'!$C22</f>
         <v>0</v>
       </c>
-      <c r="H21" s="25" t="s">
-        <v>31</v>
+      <c r="H22" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="26"/>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="21">
+        <v>42887</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="24" t="str">
+        <f ca="1">IF(E23&lt;TODAY(),"Terminé","En cours")</f>
+        <v>En cours</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
@@ -2501,7 +2556,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F9 D21" calculatedColumn="1"/>
+    <ignoredError sqref="G23 D22:D23 F8:G8 F10 D8" calculatedColumn="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="1">
